--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet_un_protected_sheet.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet_un_protected_sheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Ra6c20e4f7f154d21"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R4f744d60524f454e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet_un_protected_sheet.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet_un_protected_sheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R4f744d60524f454e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R074cc18195f04015"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet_un_protected_sheet.xlsx
+++ b/FileFormat.Cells.Examples.Usage/spreadSheetDocuments/Worksheet/spreadsheet_un_protected_sheet.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R074cc18195f04015"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R94935424e1d24bfa"/>
   </x:sheets>
 </x:workbook>
 </file>
